--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43128,6 +43128,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43165,6 +43165,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43202,6 +43202,43 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I1213" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43239,6 +43239,41 @@
         </is>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43274,6 +43274,41 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43309,6 +43309,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43346,6 +43346,41 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43381,6 +43381,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43416,6 +43416,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43451,6 +43451,41 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>12500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43486,6 +43486,43 @@
         <v>12500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43523,6 +43523,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43558,6 +43558,78 @@
         <v>1400</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43630,6 +43630,80 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43704,6 +43704,43 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43741,6 +43741,43 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>42600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43813,6 +43813,41 @@
         <v>42600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>42600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43848,6 +43848,78 @@
         <v>42600</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>18100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43920,6 +43920,41 @@
         <v>18100</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43955,6 +43955,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1962"/>
+  <dimension ref="A1:I1963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69470,6 +69470,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1963">
+      <c r="A1963" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1963" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1963" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1963" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1963" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1963" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1963" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1963"/>
+  <dimension ref="A1:I1964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69505,6 +69505,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1964">
+      <c r="A1964" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1964" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1964" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1964" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1964" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1964" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1964" t="n">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1964"/>
+  <dimension ref="A1:I1965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69540,6 +69540,41 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="1965">
+      <c r="A1965" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1965" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1965" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1965" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1965" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1965" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1965" t="n">
+        <v>12500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1965"/>
+  <dimension ref="A1:I1966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69575,6 +69575,41 @@
         <v>12500</v>
       </c>
     </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1966" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1966" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H1966" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1966" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1966"/>
+  <dimension ref="A1:I1967"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69610,6 +69610,43 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1967" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1967" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1967" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1967" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1967"/>
+  <dimension ref="A1:I1968"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69647,6 +69647,43 @@
         </is>
       </c>
     </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1968" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1968" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1968" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1968" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1968" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1968"/>
+  <dimension ref="A1:I1969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69684,6 +69684,41 @@
         </is>
       </c>
     </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1969" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1969" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1969" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1969" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1969" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1969"/>
+  <dimension ref="A1:I1970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69719,6 +69719,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1970" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1970" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1970" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1970" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I1970" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1970"/>
+  <dimension ref="A1:I1971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69756,6 +69756,41 @@
         </is>
       </c>
     </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1971" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F1971" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G1971" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1971" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1971" t="n">
+        <v>25700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1971"/>
+  <dimension ref="A1:I1972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69791,6 +69791,43 @@
         <v>25700</v>
       </c>
     </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1972" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1972" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1972" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1972"/>
+  <dimension ref="A1:I1973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69828,6 +69828,41 @@
         </is>
       </c>
     </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1973" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1973" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1973" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1973" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1973"/>
+  <dimension ref="A1:I1974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69863,6 +69863,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1974" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1974" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1974" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1974" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1974"/>
+  <dimension ref="A1:I1975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69898,6 +69898,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1975" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1975" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1975" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1975" t="n">
+        <v>13400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1975"/>
+  <dimension ref="A1:I1976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69933,6 +69933,43 @@
         <v>13400</v>
       </c>
     </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1976" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1976" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1976" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1976" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1976"/>
+  <dimension ref="A1:I1977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69970,6 +69970,41 @@
         </is>
       </c>
     </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E1977" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1977" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H1977" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1977" t="n">
+        <v>8500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2550"/>
+  <dimension ref="A1:I2551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90060,6 +90060,43 @@
         <v>8500</v>
       </c>
     </row>
+    <row r="2551">
+      <c r="A2551" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2551" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2551" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2551" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2551" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2551" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2551"/>
+  <dimension ref="A1:I2552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90097,6 +90097,43 @@
         </is>
       </c>
     </row>
+    <row r="2552">
+      <c r="A2552" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2552" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2552" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2552" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2552" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2552" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2552"/>
+  <dimension ref="A1:I2553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90134,6 +90134,43 @@
         </is>
       </c>
     </row>
+    <row r="2553">
+      <c r="A2553" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2553" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F2553" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2553" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H2553" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2553" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2553"/>
+  <dimension ref="A1:I2554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90171,6 +90171,41 @@
         </is>
       </c>
     </row>
+    <row r="2554">
+      <c r="A2554" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2554" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2554" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="F2554" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G2554" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="H2554" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I2554" t="n">
+        <v>48400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2554"/>
+  <dimension ref="A1:I2555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90206,6 +90206,43 @@
         <v>48400</v>
       </c>
     </row>
+    <row r="2555">
+      <c r="A2555" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2555" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2555" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F2555" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G2555" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H2555" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I2555" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2555"/>
+  <dimension ref="A1:I2556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90243,6 +90243,41 @@
         </is>
       </c>
     </row>
+    <row r="2556">
+      <c r="A2556" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2556" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2556" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2556" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2556" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2556" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2556"/>
+  <dimension ref="A1:I2557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90278,6 +90278,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2557">
+      <c r="A2557" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2557" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2557" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2557" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2557" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2557" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2557" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2557"/>
+  <dimension ref="A1:I2558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90315,6 +90315,41 @@
         </is>
       </c>
     </row>
+    <row r="2558">
+      <c r="A2558" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2558" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F2558" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G2558" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H2558" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I2558" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2558"/>
+  <dimension ref="A1:I2559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90350,6 +90350,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2559">
+      <c r="A2559" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2559" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2559" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2559" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2559" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2559" t="n">
+        <v>9900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2559"/>
+  <dimension ref="A1:I2561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90385,6 +90385,78 @@
         <v>9900</v>
       </c>
     </row>
+    <row r="2560">
+      <c r="A2560" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2560" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F2560" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G2560" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H2560" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I2560" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2561" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2561" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2561" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G2561" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2561" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2561" t="n">
+        <v>33200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2561"/>
+  <dimension ref="A1:I2562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90457,6 +90457,41 @@
         <v>33200</v>
       </c>
     </row>
+    <row r="2562">
+      <c r="A2562" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2562" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2562" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F2562" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G2562" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H2562" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="I2562" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2562"/>
+  <dimension ref="A1:I2565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90492,6 +90492,111 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2563">
+      <c r="A2563" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2563" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2563" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2563" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2563" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2563" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2563" t="n">
+        <v>40800</v>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2564" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2564" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2564" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G2564" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2564" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I2564" t="n">
+        <v>56400</v>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2565" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2565" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2565" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2565" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2565" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2565" t="n">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2565"/>
+  <dimension ref="A1:I2566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90597,6 +90597,41 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="2566">
+      <c r="A2566" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2566" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2566" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2566" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2566" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2566" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2566" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2566"/>
+  <dimension ref="A1:I2567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90632,6 +90632,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2567">
+      <c r="A2567" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2567" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2567" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2567" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2567" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2567" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2567" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5622.xlsx
+++ b/data/5622.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2567"/>
+  <dimension ref="A1:I2570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90669,6 +90669,111 @@
         </is>
       </c>
     </row>
+    <row r="2568">
+      <c r="A2568" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2568" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2568" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2568" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2568" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2568" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2568" t="n">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2569" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2569" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F2569" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2569" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H2569" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I2569" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="D2570" t="inlineStr">
+        <is>
+          <t>PEB</t>
+        </is>
+      </c>
+      <c r="E2570" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F2570" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G2570" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H2570" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I2570" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
